--- a/NformTester/NformTester/keywordscripts/TST986_AddCustomGroup.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST986_AddCustomGroup.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7710" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7713" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3815,6 +3815,18 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4776,16 +4788,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
@@ -4959,7 +4971,7 @@
         <v>758</v>
       </c>
       <c r="B6" s="6">
-        <v>41061</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4990,7 +5002,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5020,9 +5032,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>852</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5049,11 +5061,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>762</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5079,8 +5089,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>762</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5106,10 +5120,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5136,7 +5148,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4">
@@ -5167,7 +5179,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4">
@@ -5196,7 +5208,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4">
@@ -5225,7 +5237,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4">
@@ -5256,7 +5268,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4">
@@ -5286,10 +5298,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>769</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5317,7 +5329,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5344,11 +5356,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>771</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5376,9 +5386,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>771</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>762</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5405,7 +5417,7 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -5427,6 +5439,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5485,24 +5501,22 @@
         <v>23</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>801</v>
+        <v>853</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="12"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="16"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15">
@@ -5513,23 +5527,17 @@
         <v>801</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="J25" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -5547,7 +5555,7 @@
         <v>272</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>7</v>
@@ -5556,7 +5564,7 @@
         <v>820</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J26" s="4" t="b">
         <v>1</v>
@@ -5578,7 +5586,7 @@
         <v>272</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>7</v>
@@ -5609,14 +5617,20 @@
         <v>272</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J28" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -5631,10 +5645,10 @@
         <v>801</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>2</v>
@@ -5653,15 +5667,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="4"/>
@@ -5671,18 +5687,22 @@
       <c r="N30" s="16"/>
       <c r="O30" s="11"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -5690,22 +5710,16 @@
       <c r="N31" s="16"/>
       <c r="O31" s="11"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15">
       <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D32" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5726,7 +5740,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>2</v>
@@ -5747,11 +5761,11 @@
       <c r="D34" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>235</v>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>2</v>
@@ -5773,17 +5787,15 @@
         <v>823</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5803,15 +5815,15 @@
         <v>248</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="I36" s="12"/>
+        <v>798</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5830,15 +5842,15 @@
         <v>248</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="I37" s="4"/>
+        <v>824</v>
+      </c>
+      <c r="I37" s="12"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -5857,13 +5869,13 @@
         <v>248</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5878,13 +5890,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>248</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>4</v>
@@ -5905,21 +5917,21 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>248</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="I40" s="12"/>
+        <v>826</v>
+      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -5938,13 +5950,13 @@
         <v>248</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="4"/>
@@ -5965,15 +5977,15 @@
         <v>248</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>829</v>
+        <v>254</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>828</v>
+      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5992,13 +6004,13 @@
         <v>248</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>829</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -6019,13 +6031,13 @@
         <v>248</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6046,27 +6058,23 @@
         <v>248</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>834</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="16"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="3:15" ht="14.25">
+    <row r="46" spans="3:15">
       <c r="C46" s="4">
         <v>45</v>
       </c>
@@ -6080,20 +6088,24 @@
         <v>257</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>835</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="4"/>
+        <v>833</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>834</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="16"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" ht="14.25">
       <c r="C47" s="4">
         <v>46</v>
       </c>
@@ -6104,15 +6116,15 @@
         <v>248</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>835</v>
+      </c>
+      <c r="I47" s="17"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -6131,12 +6143,14 @@
         <v>248</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>836</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -6156,7 +6170,7 @@
         <v>248</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>137</v>
@@ -6181,7 +6195,7 @@
         <v>248</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>137</v>
@@ -6206,13 +6220,13 @@
         <v>248</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -6231,7 +6245,7 @@
         <v>248</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>137</v>
@@ -6256,13 +6270,13 @@
         <v>248</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6275,13 +6289,13 @@
         <v>53</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>2</v>
@@ -6300,13 +6314,13 @@
         <v>54</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
@@ -6325,15 +6339,17 @@
         <v>55</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F56" s="4">
-        <v>3</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>823</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6348,17 +6364,15 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -6376,17 +6390,15 @@
         <v>823</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6406,15 +6418,15 @@
         <v>248</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="I59" s="12"/>
+        <v>799</v>
+      </c>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6433,15 +6445,15 @@
         <v>248</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="I60" s="4"/>
+        <v>824</v>
+      </c>
+      <c r="I60" s="12"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6460,13 +6472,13 @@
         <v>248</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6481,13 +6493,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>248</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>4</v>
@@ -6508,21 +6520,21 @@
         <v>62</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>248</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="I63" s="12"/>
+        <v>826</v>
+      </c>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6541,13 +6553,13 @@
         <v>248</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="4"/>
@@ -6568,15 +6580,15 @@
         <v>248</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>829</v>
+        <v>254</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="I65" s="4"/>
+        <v>828</v>
+      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -6595,13 +6607,13 @@
         <v>248</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>829</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6622,13 +6634,13 @@
         <v>248</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6649,27 +6661,23 @@
         <v>248</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>833</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>834</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="16"/>
       <c r="O68" s="11"/>
     </row>
-    <row r="69" spans="3:15" ht="14.25">
+    <row r="69" spans="3:15">
       <c r="C69" s="4">
         <v>68</v>
       </c>
@@ -6683,20 +6691,24 @@
         <v>257</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="4"/>
+        <v>833</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>834</v>
+      </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="16"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" ht="14.25">
       <c r="C70" s="4">
         <v>69</v>
       </c>
@@ -6707,15 +6719,15 @@
         <v>248</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I70" s="4"/>
+        <v>837</v>
+      </c>
+      <c r="I70" s="17"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6734,12 +6746,14 @@
         <v>248</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>836</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -6759,7 +6773,7 @@
         <v>248</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>137</v>
@@ -6784,7 +6798,7 @@
         <v>248</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>137</v>
@@ -6809,13 +6823,13 @@
         <v>248</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -6834,7 +6848,7 @@
         <v>248</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>137</v>
@@ -6859,13 +6873,13 @@
         <v>248</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -6878,13 +6892,13 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>2</v>
@@ -6903,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
@@ -6928,21 +6942,19 @@
         <v>78</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I79" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6967,7 +6979,7 @@
         <v>838</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="4"/>
@@ -6988,12 +7000,14 @@
         <v>235</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="12"/>
+        <v>838</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>799</v>
+      </c>
       <c r="I81" s="12"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -7002,16 +7016,22 @@
       <c r="N81" s="16"/>
       <c r="O81" s="11"/>
     </row>
-    <row r="82" spans="3:15" ht="15">
+    <row r="82" spans="3:15">
       <c r="C82" s="4">
         <v>81</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="D82" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="4"/>
@@ -7021,22 +7041,16 @@
       <c r="N82" s="16"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="3:15">
+    <row r="83" spans="3:15" ht="15">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D83" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="4"/>
@@ -7057,7 +7071,7 @@
         <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>2</v>
@@ -7079,17 +7093,15 @@
         <v>797</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -7109,12 +7121,14 @@
         <v>235</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>798</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -7131,17 +7145,15 @@
         <v>797</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7161,12 +7173,14 @@
         <v>248</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -7183,17 +7197,15 @@
         <v>797</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>798</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -7213,12 +7225,14 @@
         <v>235</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>798</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7235,23 +7249,17 @@
         <v>797</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>818</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -7269,14 +7277,20 @@
         <v>248</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>818</v>
+      </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -7291,7 +7305,7 @@
         <v>797</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>95</v>
@@ -7313,15 +7327,17 @@
         <v>93</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="4"/>
@@ -7331,15 +7347,19 @@
       <c r="N94" s="16"/>
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="3:15" ht="15">
+    <row r="95" spans="3:15">
       <c r="C95" s="4">
         <v>94</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="4"/>
+      <c r="D95" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
       <c r="G95" s="4"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -7350,22 +7370,16 @@
       <c r="N95" s="16"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="3:15">
+    <row r="96" spans="3:15" ht="15">
       <c r="C96" s="4">
         <v>95</v>
       </c>
-      <c r="D96" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D96" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="4"/>
@@ -7386,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
@@ -7408,17 +7422,15 @@
         <v>797</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -7438,12 +7450,14 @@
         <v>235</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>799</v>
+      </c>
       <c r="I99" s="12"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -7460,23 +7474,17 @@
         <v>797</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="J100" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
@@ -7494,14 +7502,20 @@
         <v>248</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>817</v>
+      </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -7516,7 +7530,7 @@
         <v>797</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>95</v>
@@ -7538,15 +7552,17 @@
         <v>102</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F103" s="4">
-        <v>2</v>
-      </c>
-      <c r="G103" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="4"/>
@@ -7556,15 +7572,19 @@
       <c r="N103" s="16"/>
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="3:15" ht="15">
+    <row r="104" spans="3:15">
       <c r="C104" s="4">
         <v>103</v>
       </c>
-      <c r="D104" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="4"/>
+      <c r="D104" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F104" s="4">
+        <v>2</v>
+      </c>
       <c r="G104" s="4"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -7575,24 +7595,18 @@
       <c r="N104" s="16"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="3:15">
+    <row r="105" spans="3:15" ht="15">
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D105" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
       <c r="H105" s="12"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="12"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -7611,12 +7625,12 @@
         <v>19</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="4"/>
+      <c r="H106" s="12"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7630,24 +7644,20 @@
         <v>106</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -7659,20 +7669,24 @@
         <v>107</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -7684,16 +7698,16 @@
         <v>108</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -7709,16 +7723,16 @@
         <v>109</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -7734,17 +7748,19 @@
         <v>110</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F111" s="4">
-        <v>2</v>
-      </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -7752,18 +7768,22 @@
       <c r="N111" s="16"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="3:15" ht="15">
+    <row r="112" spans="3:15">
       <c r="C112" s="4">
         <v>111</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="D112" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F112" s="4">
+        <v>2</v>
+      </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7771,23 +7791,17 @@
       <c r="N112" s="16"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="3:15">
+    <row r="113" spans="3:15" ht="15">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="12"/>
+      <c r="D113" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -7807,12 +7821,12 @@
         <v>19</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="12"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -7826,65 +7840,65 @@
         <v>114</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="16"/>
       <c r="O115" s="11"/>
     </row>
-    <row r="116" spans="3:15" ht="15">
+    <row r="116" spans="3:15">
       <c r="C116" s="4">
         <v>115</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="4"/>
+      <c r="D116" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="4"/>
+      <c r="H116" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="16"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="3:15">
+    <row r="117" spans="3:15" ht="15">
       <c r="C117" s="4">
         <v>116</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D117" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="4"/>
@@ -7905,7 +7919,7 @@
         <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>2</v>
@@ -7927,17 +7941,15 @@
         <v>797</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
@@ -7957,12 +7969,14 @@
         <v>235</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="I120" s="12"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7979,13 +7993,13 @@
         <v>797</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -8007,10 +8021,10 @@
         <v>272</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -8029,10 +8043,10 @@
         <v>797</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>2</v>
@@ -8051,15 +8065,17 @@
         <v>123</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F124" s="4">
-        <v>2</v>
-      </c>
-      <c r="G124" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
       <c r="J124" s="4"/>
@@ -8069,15 +8085,19 @@
       <c r="N124" s="16"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="3:15" ht="15">
+    <row r="125" spans="3:15">
       <c r="C125" s="4">
         <v>124</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="4"/>
+      <c r="D125" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F125" s="4">
+        <v>2</v>
+      </c>
       <c r="G125" s="4"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -8088,24 +8108,18 @@
       <c r="N125" s="16"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="3:15">
+    <row r="126" spans="3:15" ht="15">
       <c r="C126" s="4">
         <v>125</v>
       </c>
-      <c r="D126" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D126" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="4"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -8124,12 +8138,12 @@
         <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="4"/>
+      <c r="H127" s="12"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -8143,24 +8157,20 @@
         <v>127</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -8172,20 +8182,24 @@
         <v>128</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -8197,16 +8211,16 @@
         <v>129</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -8222,16 +8236,16 @@
         <v>130</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -8247,17 +8261,19 @@
         <v>131</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F132" s="4">
-        <v>2</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8265,15 +8281,19 @@
       <c r="N132" s="16"/>
       <c r="O132" s="11"/>
     </row>
-    <row r="133" spans="3:15" ht="15">
+    <row r="133" spans="3:15">
       <c r="C133" s="4">
         <v>132</v>
       </c>
-      <c r="D133" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="4"/>
+      <c r="D133" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
       <c r="G133" s="4"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -8284,24 +8304,18 @@
       <c r="N133" s="16"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="3:15">
+    <row r="134" spans="3:15" ht="15">
       <c r="C134" s="4">
         <v>133</v>
       </c>
-      <c r="D134" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D134" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="4"/>
+      <c r="I134" s="12"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -8320,12 +8334,12 @@
         <v>19</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="4"/>
+      <c r="H135" s="12"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -8339,24 +8353,20 @@
         <v>135</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
@@ -8368,20 +8378,24 @@
         <v>136</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -8393,16 +8407,16 @@
         <v>137</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -8418,16 +8432,16 @@
         <v>138</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -8443,17 +8457,19 @@
         <v>139</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F140" s="4">
-        <v>2</v>
-      </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -8461,15 +8477,19 @@
       <c r="N140" s="16"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="3:15" ht="15">
+    <row r="141" spans="3:15">
       <c r="C141" s="4">
         <v>140</v>
       </c>
-      <c r="D141" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="4"/>
+      <c r="D141" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="F141" s="4">
+        <v>2</v>
+      </c>
       <c r="G141" s="4"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -8480,24 +8500,18 @@
       <c r="N141" s="16"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="3:15">
+    <row r="142" spans="3:15" ht="15">
       <c r="C142" s="4">
         <v>141</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>840</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D142" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="4"/>
+      <c r="I142" s="12"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8516,13 +8530,13 @@
         <v>19</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8535,24 +8549,20 @@
         <v>143</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>844</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -8564,20 +8574,24 @@
         <v>144</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>844</v>
+      </c>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -8595,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>2</v>
@@ -8616,18 +8630,16 @@
       <c r="D147" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="E147" s="12" t="s">
-        <v>235</v>
+      <c r="E147" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" s="12"/>
       <c r="I147" s="12"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -8647,12 +8659,14 @@
         <v>235</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H148" s="12" t="s">
+        <v>845</v>
+      </c>
       <c r="I148" s="12"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8672,14 +8686,12 @@
         <v>235</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H149" s="12" t="s">
-        <v>846</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -8699,12 +8711,14 @@
         <v>235</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>846</v>
+      </c>
       <c r="I150" s="12"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -8724,14 +8738,12 @@
         <v>235</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H151" s="12" t="s">
-        <v>847</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -8751,12 +8763,14 @@
         <v>235</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H152" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>847</v>
+      </c>
       <c r="I152" s="12"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -8773,13 +8787,13 @@
         <v>840</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
@@ -8801,7 +8815,7 @@
         <v>272</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>137</v>
@@ -8826,7 +8840,7 @@
         <v>272</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>137</v>
@@ -8851,10 +8865,10 @@
         <v>272</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
@@ -8870,20 +8884,18 @@
         <v>156</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H157" s="12" t="s">
-        <v>848</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -8903,12 +8915,14 @@
         <v>235</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H158" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>848</v>
+      </c>
       <c r="I158" s="12"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -8922,13 +8936,13 @@
         <v>158</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>235</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>2</v>
@@ -8942,9 +8956,34 @@
       <c r="N159" s="16"/>
       <c r="O159" s="11"/>
     </row>
+    <row r="160" spans="3:15">
+      <c r="C160" s="4">
+        <v>159</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N159">
+  <conditionalFormatting sqref="N2:N160">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8953,24 +8992,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D134:D140 D124 D113:D115 D105:D111 D103 D94 D126:D132 D142:D159 D22:D30 D32:D81 D5:D20 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D135:D141 D125 D114:D116 D106:D112 D104 D95 D127:D133 D143:D160 D22:D31 D33:D82 D5:D20 D3">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F160">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G160">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E160">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H40" r:id="rId1"/>
-    <hyperlink ref="H41" r:id="rId2"/>
-    <hyperlink ref="H63" r:id="rId3"/>
-    <hyperlink ref="H64" r:id="rId4"/>
+    <hyperlink ref="H41" r:id="rId1"/>
+    <hyperlink ref="H42" r:id="rId2"/>
+    <hyperlink ref="H64" r:id="rId3"/>
+    <hyperlink ref="H65" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/NformTester/NformTester/keywordscripts/TST986_AddCustomGroup.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST986_AddCustomGroup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7713" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4788,10 +4788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5002,7 +5002,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -7219,20 +7219,16 @@
         <v>89</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>798</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F90" s="4">
+        <v>5</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7252,12 +7248,14 @@
         <v>235</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>798</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -7271,26 +7269,18 @@
         <v>91</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>818</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F92" s="4">
+        <v>5</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -7305,10 +7295,10 @@
         <v>797</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>2</v>
@@ -7330,17 +7320,23 @@
         <v>797</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>818</v>
+      </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -7352,15 +7348,17 @@
         <v>94</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="4"/>
@@ -7370,16 +7368,22 @@
       <c r="N95" s="16"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="3:15" ht="15">
+    <row r="96" spans="3:15">
       <c r="C96" s="4">
         <v>95</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="D96" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="4"/>
@@ -7394,17 +7398,15 @@
         <v>96</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="4"/>
@@ -7414,22 +7416,16 @@
       <c r="N97" s="16"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="3:15">
+    <row r="98" spans="3:15" ht="15">
       <c r="C98" s="4">
         <v>97</v>
       </c>
-      <c r="D98" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D98" s="13" t="s">
+        <v>814</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
       <c r="J98" s="4"/>
@@ -7447,17 +7443,15 @@
         <v>797</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>799</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -7474,10 +7468,10 @@
         <v>797</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>2</v>
@@ -7499,23 +7493,19 @@
         <v>797</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="J101" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="I101" s="12"/>
+      <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
@@ -7530,10 +7520,10 @@
         <v>797</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>2</v>
@@ -7555,17 +7545,23 @@
         <v>797</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>817</v>
+      </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -7577,15 +7573,17 @@
         <v>103</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F104" s="4">
-        <v>2</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="4"/>
@@ -7595,16 +7593,22 @@
       <c r="N104" s="16"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="3:15" ht="15">
+    <row r="105" spans="3:15">
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="D105" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="4"/>
@@ -7619,19 +7623,17 @@
         <v>105</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F106" s="4">
+        <v>2</v>
+      </c>
+      <c r="G106" s="4"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="12"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -7639,24 +7641,18 @@
       <c r="N106" s="16"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="3:15">
+    <row r="107" spans="3:15" ht="15">
       <c r="C107" s="4">
         <v>106</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="D107" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -7669,24 +7665,20 @@
         <v>107</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="12"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -7698,13 +7690,13 @@
         <v>108</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>2</v>
@@ -7723,20 +7715,24 @@
         <v>109</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -7773,17 +7769,19 @@
         <v>111</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F112" s="4">
-        <v>2</v>
-      </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -7791,16 +7789,22 @@
       <c r="N112" s="16"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="3:15" ht="15">
+    <row r="113" spans="3:15">
       <c r="C113" s="4">
         <v>112</v>
       </c>
-      <c r="D113" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="D113" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -7815,19 +7819,17 @@
         <v>113</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F114" s="4">
+        <v>2</v>
+      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="4"/>
+      <c r="I114" s="12"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -7835,22 +7837,16 @@
       <c r="N114" s="16"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="3:15">
+    <row r="115" spans="3:15" ht="15">
       <c r="C115" s="4">
         <v>114</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D115" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -7865,42 +7861,44 @@
         <v>115</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="16"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="3:15" ht="15">
+    <row r="117" spans="3:15">
       <c r="C117" s="4">
         <v>116</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
+      <c r="D117" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7913,42 +7911,40 @@
         <v>117</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="16"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="3:15">
+    <row r="119" spans="3:15" ht="15">
       <c r="C119" s="4">
         <v>118</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D119" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="4"/>
@@ -7966,17 +7962,15 @@
         <v>797</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
@@ -7993,10 +7987,10 @@
         <v>797</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>2</v>
@@ -8018,15 +8012,17 @@
         <v>797</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H122" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>805</v>
+      </c>
       <c r="I122" s="12"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -8043,10 +8039,10 @@
         <v>797</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>2</v>
@@ -8068,13 +8064,13 @@
         <v>797</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -8090,15 +8086,17 @@
         <v>124</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F125" s="4">
-        <v>2</v>
-      </c>
-      <c r="G125" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="4"/>
@@ -8108,16 +8106,22 @@
       <c r="N125" s="16"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="3:15" ht="15">
+    <row r="126" spans="3:15">
       <c r="C126" s="4">
         <v>125</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="D126" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
       <c r="J126" s="4"/>
@@ -8132,19 +8136,17 @@
         <v>126</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+      <c r="G127" s="4"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="4"/>
+      <c r="I127" s="12"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
@@ -8152,24 +8154,18 @@
       <c r="N127" s="16"/>
       <c r="O127" s="11"/>
     </row>
-    <row r="128" spans="3:15">
+    <row r="128" spans="3:15" ht="15">
       <c r="C128" s="4">
         <v>127</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
+      <c r="D128" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -8182,24 +8178,20 @@
         <v>128</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
@@ -8211,13 +8203,13 @@
         <v>129</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>2</v>
@@ -8236,20 +8228,24 @@
         <v>130</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -8286,17 +8282,19 @@
         <v>132</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F133" s="4">
-        <v>2</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -8304,18 +8302,24 @@
       <c r="N133" s="16"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="3:15" ht="15">
+    <row r="134" spans="3:15">
       <c r="C134" s="4">
         <v>133</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>815</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
+      <c r="D134" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -8328,19 +8332,17 @@
         <v>134</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="4"/>
+      <c r="I135" s="12"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -8348,24 +8350,18 @@
       <c r="N135" s="16"/>
       <c r="O135" s="11"/>
     </row>
-    <row r="136" spans="3:15">
+    <row r="136" spans="3:15" ht="15">
       <c r="C136" s="4">
         <v>135</v>
       </c>
-      <c r="D136" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
+      <c r="D136" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -8378,24 +8374,20 @@
         <v>136</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G137" s="4"/>
-      <c r="H137" s="12" t="s">
-        <v>799</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>796</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="12"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -8407,13 +8399,13 @@
         <v>137</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>2</v>
@@ -8432,20 +8424,24 @@
         <v>138</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -8482,17 +8478,19 @@
         <v>140</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F141" s="4">
-        <v>2</v>
-      </c>
-      <c r="G141" s="4"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -8500,18 +8498,24 @@
       <c r="N141" s="16"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="3:15" ht="15">
+    <row r="142" spans="3:15">
       <c r="C142" s="4">
         <v>141</v>
       </c>
-      <c r="D142" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
+      <c r="D142" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8524,19 +8528,17 @@
         <v>142</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>840</v>
+        <v>791</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="F143" s="4">
+        <v>2</v>
+      </c>
+      <c r="G143" s="4"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="4"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8544,22 +8546,16 @@
       <c r="N143" s="16"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="3:15">
+    <row r="144" spans="3:15" ht="15">
       <c r="C144" s="4">
         <v>143</v>
       </c>
-      <c r="D144" s="14" t="s">
-        <v>840</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D144" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="4"/>
@@ -8574,24 +8570,20 @@
         <v>144</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>841</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>0</v>
+        <v>840</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>844</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="12"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -8605,11 +8597,11 @@
       <c r="D146" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>2</v>
@@ -8628,20 +8620,24 @@
         <v>146</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="4"/>
+        <v>794</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>844</v>
+      </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -8655,18 +8651,16 @@
       <c r="D148" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="E148" s="12" t="s">
-        <v>235</v>
+      <c r="E148" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H148" s="12" t="s">
-        <v>845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8682,11 +8676,11 @@
       <c r="D149" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>235</v>
+      <c r="E149" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>2</v>
@@ -8717,7 +8711,7 @@
         <v>56</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I150" s="12"/>
       <c r="J150" s="4"/>
@@ -8763,13 +8757,13 @@
         <v>235</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="4"/>
@@ -8790,7 +8784,7 @@
         <v>235</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>2</v>
@@ -8812,15 +8806,17 @@
         <v>840</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H154" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>847</v>
+      </c>
       <c r="I154" s="12"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -8837,13 +8833,13 @@
         <v>840</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -8865,7 +8861,7 @@
         <v>272</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>137</v>
@@ -8890,10 +8886,10 @@
         <v>272</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -8909,20 +8905,18 @@
         <v>157</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>848</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -8936,13 +8930,13 @@
         <v>158</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>2</v>
@@ -8961,18 +8955,20 @@
         <v>159</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>840</v>
+        <v>801</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>235</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H160" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>848</v>
+      </c>
       <c r="I160" s="12"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -8981,9 +8977,59 @@
       <c r="N160" s="16"/>
       <c r="O160" s="11"/>
     </row>
+    <row r="161" spans="3:15">
+      <c r="C161" s="4">
+        <v>160</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="11"/>
+    </row>
+    <row r="162" spans="3:15">
+      <c r="C162" s="4">
+        <v>161</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N160">
+  <conditionalFormatting sqref="N2:N162">
     <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8992,16 +9038,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D135:D141 D125 D114:D116 D106:D112 D104 D95 D127:D133 D143:D160 D22:D31 D33:D82 D5:D20 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D137:D143 D127 D116:D118 D108:D114 D106 D97 D129:D135 D145:D162 D22:D31 D33:D82 D5:D20 D3 D90 D92">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F162">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G162">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E162">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
